--- a/Client/ExcelConfig/Excel/LevelupMPlane.xlsx
+++ b/Client/ExcelConfig/Excel/LevelupMPlane.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="12195"/>
+    <workbookView windowWidth="23955" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,8 +73,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -86,6 +86,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -93,28 +129,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -123,39 +175,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,60 +201,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +239,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -257,12 +407,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -276,150 +420,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,32 +433,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,15 +447,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,13 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,16 +504,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,10 +1029,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4" s="1">
         <v>500</v>
@@ -1144,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>500</v>
@@ -1176,18 +1176,18 @@
         <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>500</v>
       </c>
       <c r="C6" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1">
         <v>941</v>
@@ -1202,12 +1202,12 @@
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>500</v>
@@ -1228,38 +1228,38 @@
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C8" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1">
         <v>941</v>
       </c>
       <c r="E8" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>600</v>
@@ -1280,18 +1280,18 @@
         <v>2.5</v>
       </c>
       <c r="H9" s="1">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>600</v>
       </c>
       <c r="C10" s="1">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1">
         <v>941</v>
@@ -1306,12 +1306,12 @@
         <v>2.5</v>
       </c>
       <c r="H10" s="1">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>600</v>
@@ -1332,41 +1332,41 @@
         <v>2.5</v>
       </c>
       <c r="H11" s="1">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>600</v>
       </c>
       <c r="C12" s="1">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="D12" s="1">
         <v>941</v>
       </c>
       <c r="E12" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H12" s="1">
-        <v>360</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C13" s="1">
         <v>240</v>
@@ -1384,18 +1384,18 @@
         <v>3</v>
       </c>
       <c r="H13" s="1">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>700</v>
       </c>
       <c r="C14" s="1">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="D14" s="1">
         <v>941</v>
@@ -1410,6 +1410,32 @@
         <v>3</v>
       </c>
       <c r="H14" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>700</v>
+      </c>
+      <c r="C15" s="1">
+        <v>270</v>
+      </c>
+      <c r="D15" s="1">
+        <v>941</v>
+      </c>
+      <c r="E15" s="1">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
         <v>420</v>
       </c>
     </row>
